--- a/biology/Histoire de la zoologie et de la botanique/Fredi_Darimont/Fredi_Darimont.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fredi_Darimont/Fredi_Darimont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fredi René Darimont (né à Vottem le 13 août 1917 et mort à Liège le 27 février 1966) est un botaniste belge, professeur à l'université de Liège et chef de cabinet-adjoint du ministre de l’instruction publique[1].
-Il était un spécialiste reconnu des champignons, et plus spécifiquement la mycosociologie, l’écologie et la distribution géographique des champignons. Il a posé les bases de la mycosociologie, en a défini les principes fondateurs, forgé les méthodes, et créé le vocabulaire[1].
-Il s'était également donné pour tâche de servir sa commune de Vottem à travers la sauvegarde de son caractère rural et la maîtrise de son urbanisation[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fredi René Darimont (né à Vottem le 13 août 1917 et mort à Liège le 27 février 1966) est un botaniste belge, professeur à l'université de Liège et chef de cabinet-adjoint du ministre de l’instruction publique.
+Il était un spécialiste reconnu des champignons, et plus spécifiquement la mycosociologie, l’écologie et la distribution géographique des champignons. Il a posé les bases de la mycosociologie, en a défini les principes fondateurs, forgé les méthodes, et créé le vocabulaire.
+Il s'était également donné pour tâche de servir sa commune de Vottem à travers la sauvegarde de son caractère rural et la maîtrise de son urbanisation.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1941, il termine des études de biologie à l’Université de Liège. Durant celles-ci, il se passionne pour la zoologie et la botanique de terrain (floristique et phytosociologie) [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1941, il termine des études de biologie à l’Université de Liège. Durant celles-ci, il se passionne pour la zoologie et la botanique de terrain (floristique et phytosociologie) .
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1942: assistant à l’Université de Liège[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1942: assistant à l’Université de Liège
 1953: chef de travaux
 1957: chargé de cours et responsable de la chaire de Cryptogamie
 Professeur extraordinaire à l’Université de Liège</t>
@@ -577,9 +593,11 @@
           <t>Fonctions académiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fredi Darimont a occupé des postes clés à[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fredi Darimont a occupé des postes clés à:
 Fonds National de la Recherche Scientifique
 Fonds de la Recherche Fondamentale Collective
 Il a été président de la Société royale de Botanique de Belgique en 1961-1962, lors des manifestations commémoratives du centenaire de cette société</t>
@@ -610,7 +628,9 @@
           <t>Ouvrages et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Classement chronologique des publications
@@ -661,13 +681,15 @@
           <t>Fonctions politiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Membre du Parti Socialiste Belge (PSB)[3]
-1957: Chef de cabinet-adjoint de Léo Collard, ministre de l’instruction publique[1]
-1958: Directeur général de l’Enseignement supérieur et de la Recherche scientifique[1]
-Représentant de la Belgique dans de nombreuses réunions internationales consacrées à l’éducation et à la politique scientifique[1]
-1963: conseiller communal à Vottem en remplacement de Raymond Donnay (démissionnaire); réélu en 1964[4],[2],[3]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Membre du Parti Socialiste Belge (PSB)
+1957: Chef de cabinet-adjoint de Léo Collard, ministre de l’instruction publique
+1958: Directeur général de l’Enseignement supérieur et de la Recherche scientifique
+Représentant de la Belgique dans de nombreuses réunions internationales consacrées à l’éducation et à la politique scientifique
+1963: conseiller communal à Vottem en remplacement de Raymond Donnay (démissionnaire); réélu en 1964</t>
         </is>
       </c>
     </row>
@@ -695,9 +717,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il meurt des suites d’un accident d’automobile, survenu à Liège le 27 février 1966[1],[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt des suites d’un accident d’automobile, survenu à Liège le 27 février 1966,.
 </t>
         </is>
       </c>
@@ -726,10 +750,12 @@
           <t>Vie privée et famille</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était marié et avait trois filles. Il a habité à Vottem durant toute sa vie[3].
-Par sa mère, Isabelle Henoumont, Fredi Darimont est le cousin germain de l'écrivain René Henoumont, qui l'évoque à plusieurs reprises dans son œuvre[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était marié et avait trois filles. Il a habité à Vottem durant toute sa vie.
+Par sa mère, Isabelle Henoumont, Fredi Darimont est le cousin germain de l'écrivain René Henoumont, qui l'évoque à plusieurs reprises dans son œuvre.
 </t>
         </is>
       </c>
@@ -758,9 +784,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1976, à l'occasion du dixième anniversaire de sa mort, la Direction générale de l'Enseignement supérieur et de la Recherche scientifique du Ministère de l'Éducation nationale et de la Culture française lui dédie le colloque Scientifiques et fonctionnaires dans la politique scientifique[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1976, à l'occasion du dixième anniversaire de sa mort, la Direction générale de l'Enseignement supérieur et de la Recherche scientifique du Ministère de l'Éducation nationale et de la Culture française lui dédie le colloque Scientifiques et fonctionnaires dans la politique scientifique.
 </t>
         </is>
       </c>
